--- a/assets/excel/2021_4-1-6.xlsx
+++ b/assets/excel/2021_4-1-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED92257D-A980-4170-B94F-A028A69428A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2778B2D3-095C-4144-B414-CE03ED22D349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{1B814798-4DC2-4D6F-863C-1DA0DC84084D}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>Migration und Teilhabe - Integrationsmonitoring Niedersachsen 2021</t>
   </si>
   <si>
-    <t>Indikator 4.1.6: Frühe Schulabgängerinnen und Schulabgänger nach Geschlecht, Zuwanderungsgeschichte und eigener Migrationserfahrung</t>
-  </si>
-  <si>
-    <t>Tabelle 4.1.6: Frühe Schulabgängerinnen und Schulabgänger nach Geschlecht, Zuwanderungsgeschichte und eigener Migrationserfahrung</t>
-  </si>
-  <si>
     <t>Geschlecht</t>
   </si>
   <si>
@@ -391,6 +385,12 @@
   </si>
   <si>
     <t>https://www.integrationsmonitoring.niedersachsen.de</t>
+  </si>
+  <si>
+    <t>Indikator 4.1.6: Frühe Schulabgängerinnen und Schulabgänger nach Geschlecht, Zuwanderungsgeschichte und eigener Migrationserfahrung (in Prozent)</t>
+  </si>
+  <si>
+    <t>Tabelle 4.1.6: Frühe Schulabgängerinnen und Schulabgänger nach Geschlecht, Zuwanderungsgeschichte und eigener Migrationserfahrung (in Prozent)</t>
   </si>
 </sst>
 </file>
@@ -579,35 +579,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -621,9 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -636,6 +609,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -955,7 +955,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,872 +970,872 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="2:8" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:8" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="19"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="2:8" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20"/>
+      <c r="C9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="G10" s="6">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="13"/>
-      <c r="C9" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8">
+        <v>30</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="14">
-        <v>4</v>
-      </c>
-      <c r="F10" s="14">
-        <v>5</v>
-      </c>
-      <c r="G10" s="14">
-        <v>6</v>
-      </c>
-      <c r="H10" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2019</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="C14" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="16">
+      <c r="C15" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="E33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2005</v>
+      </c>
+      <c r="D38" s="8">
         <v>16</v>
       </c>
-      <c r="C12" s="16">
-        <v>2019</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E38" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="F38" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="G38" s="8">
+        <v>25</v>
+      </c>
+      <c r="H38" s="8">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2005</v>
+      </c>
+      <c r="D39" s="8">
+        <v>13.7</v>
+      </c>
+      <c r="E39" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="F39" s="8">
+        <v>22.3</v>
+      </c>
+      <c r="G39" s="8">
+        <v>22</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="16">
-        <v>29.7</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="16">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="C40" s="8">
+        <v>2005</v>
+      </c>
+      <c r="D40" s="8">
+        <v>18.5</v>
+      </c>
+      <c r="E40" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="G40" s="8">
+        <v>27.2</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="16">
-        <v>2018</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2018</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="16">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="16">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="16">
-        <v>2017</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="16">
-        <v>2017</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="16">
-        <v>2016</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="16">
-        <v>2016</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="16">
-        <v>2016</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="16">
-        <v>2015</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="16">
-        <v>2015</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="16">
-        <v>2015</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2014</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="16">
-        <v>2014</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="16">
-        <v>2014</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="16">
-        <v>2013</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="16">
-        <v>2013</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="16">
-        <v>2013</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="16">
-        <v>2012</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="16">
-        <v>2012</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="16">
-        <v>2012</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="16">
-        <v>2011</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="16">
-        <v>2011</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="16">
-        <v>2011</v>
-      </c>
-      <c r="D37" s="16" t="s">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="16" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" s="10" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="16">
-        <v>2005</v>
-      </c>
-      <c r="D38" s="16">
-        <v>16</v>
-      </c>
-      <c r="E38" s="16">
-        <v>13.2</v>
-      </c>
-      <c r="F38" s="16">
-        <v>25.3</v>
-      </c>
-      <c r="G38" s="16">
-        <v>25</v>
-      </c>
-      <c r="H38" s="16">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="16">
-        <v>2005</v>
-      </c>
-      <c r="D39" s="16">
-        <v>13.7</v>
-      </c>
-      <c r="E39" s="16">
-        <v>11.4</v>
-      </c>
-      <c r="F39" s="16">
-        <v>22.3</v>
-      </c>
-      <c r="G39" s="16">
-        <v>22</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="16">
-        <v>2005</v>
-      </c>
-      <c r="D40" s="16">
-        <v>18.5</v>
-      </c>
-      <c r="E40" s="16">
-        <v>15.2</v>
-      </c>
-      <c r="F40" s="16">
-        <v>27.7</v>
-      </c>
-      <c r="G40" s="16">
-        <v>27.2</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:11" s="18" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="19" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43" spans="1:11" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="19" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="1:11" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="1:11" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="1:11" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+    <row r="51" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
